--- a/spec/fixtures/dropbox/example_batch_ingest/badColumnName_nonRequired.xlsx
+++ b/spec/fixtures/dropbox/example_batch_ingest/badColumnName_nonRequired.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t xml:space="preserve">Files with spaces</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">Test subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aviation</t>
   </si>
   <si>
     <t xml:space="preserve">Test Batch - File 2 with space</t>
@@ -250,28 +253,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2:T3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4037037037037"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,6 +345,9 @@
       <c r="T2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="U2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -371,10 +377,13 @@
       <c r="T3" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="U3" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>21</v>
@@ -392,7 +401,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
